--- a/medicine/Pharmacie/Classe_ATC_V07/Classe_ATC_V07.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_V07/Classe_ATC_V07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC V07, dénommée « Tous les autres produits non-thérapeutiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV07[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC V07, dénommée « Tous les autres produits non-thérapeutiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV07. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
 </t>
         </is>
       </c>
@@ -513,30 +525,409 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>V07AA Plâtres
-Vide.
-V07AB Solvants et diluants, solutions d'irrigation incluses
-Vide.
-V07AC Produits auxiliaires pour transfusion sanguine
-Vide.
-V07AD Produits auxiliaires pour tests sanguins
-Vide.
-V07AN Équipement pour incontinence
-Vide.
-V07AR Test de sensibilité, disques et comprimés
-Vide.
-V07AS Matériels de stomies
-Vide.
-V07AT Cosmétiques
-Vide.
-V07AV Désinfectants techniques
-Vide.
-V07AX Agents de nettoyage, etc.
-Vide.
-V07AY Autres produits auxiliaires non thérapeutiques
-Vide.
-V07AZ Produits chimiques et réactifs pour analyse
-Vide.</t>
+          <t>V07AA Plâtres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V07AB Solvants et diluants, solutions d'irrigation incluses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V07AC Produits auxiliaires pour transfusion sanguine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V07AD Produits auxiliaires pour tests sanguins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V07AN Équipement pour incontinence</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V07AR Test de sensibilité, disques et comprimés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V07AS Matériels de stomies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V07AT Cosmétiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V07AV Désinfectants techniques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V07AX Agents de nettoyage, etc.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>V07AY Autres produits auxiliaires non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>V07A Tous autres produits non thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>V07AZ Produits chimiques et réactifs pour analyse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Vide.</t>
         </is>
       </c>
     </row>
